--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>星期一</t>
   </si>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>构建service层，配置问题存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:30&amp;19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融入小组项目，重新构建自己的实体，并写测试类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +591,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:Q52"/>
+      <selection activeCell="D53" sqref="D53:Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1744,9 +1755,13 @@
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -1847,6 +1862,96 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A33:Q33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:Q34"/>
@@ -1862,96 +1967,6 @@
     <mergeCell ref="D37:Q37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>星期一</t>
   </si>
@@ -227,7 +227,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构建service层，配置问题存在问题</t>
+    <t>14:30-15:30&amp;16：-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理base层并继续构建service层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理完善dao层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善service层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +612,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:Q52"/>
+      <selection activeCell="D55" sqref="D55:Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1756,7 @@
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -1744,9 +1776,13 @@
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -1765,9 +1801,13 @@
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -1786,9 +1826,13 @@
       <c r="A54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -1807,9 +1851,13 @@
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -1847,6 +1895,96 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A33:Q33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:Q34"/>
@@ -1862,96 +2000,6 @@
     <mergeCell ref="D37:Q37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>星期一</t>
   </si>
@@ -260,6 +260,26 @@
   </si>
   <si>
     <t>完善service层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三周2019-5-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习web层的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习Spring MVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,8 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,1292 +632,1468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:Q55"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="120">
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:Q55"/>
     <mergeCell ref="B56:C56"/>
@@ -2000,6 +2199,21 @@
     <mergeCell ref="D37:Q37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>星期一</t>
   </si>
@@ -280,6 +280,22 @@
   </si>
   <si>
     <t>继续学习Spring MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书上关于MVC的内容并尝试写小例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-117:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改包名并了解web层结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +651,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:Q61"/>
+      <selection activeCell="D59" sqref="D59:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1962,9 +1978,13 @@
       <c r="A59" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -2054,9 +2074,13 @@
       <c r="A63" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="D63" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2094,66 +2118,51 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -2169,51 +2178,66 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:Q61"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>星期一</t>
   </si>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>修改包名并了解web层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试写Spring MVC例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +659,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:Q59"/>
+      <selection activeCell="D62" sqref="D62:Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,9 +2107,13 @@
       <c r="A64" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="D64" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2118,6 +2130,111 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:Q62"/>
     <mergeCell ref="B63:C63"/>
@@ -2133,111 +2250,6 @@
     <mergeCell ref="D60:Q60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:Q61"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>星期一</t>
   </si>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>讨论项目相关文档和计划如何实行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照测试方案，编写并调试测试总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-2:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +682,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66:Q66"/>
+      <selection activeCell="B68" sqref="B68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2214,9 +2222,13 @@
       <c r="A68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -2317,6 +2329,126 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:Q70"/>
     <mergeCell ref="B71:C71"/>
@@ -2332,126 +2464,6 @@
     <mergeCell ref="D68:Q68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:Q69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:Q61"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>星期一</t>
   </si>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>21:00-2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-15:00&amp;16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service方法设计及element-ui构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +690,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:C68"/>
+      <selection activeCell="D71" sqref="D71:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,9 +2297,13 @@
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -2329,66 +2341,66 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:Q70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:Q72"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:Q66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:Q67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:Q68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:Q69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -2404,66 +2416,66 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:Q61"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:Q70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:Q72"/>
-    <mergeCell ref="A65:Q65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:Q66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:Q67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:Q68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:Q69"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>星期一</t>
   </si>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>service方法设计及element-ui构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +698,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:Q71"/>
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2322,9 +2330,13 @@
       <c r="A72" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -2341,6 +2353,126 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:Q70"/>
     <mergeCell ref="B71:C71"/>
@@ -2356,126 +2488,6 @@
     <mergeCell ref="D68:Q68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:Q69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:Q61"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044207邢朋举.xlsx
+++ b/doc/log/201708044207邢朋举.xlsx
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:C72"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2353,66 +2353,66 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:Q70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:Q72"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:Q66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:Q67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:Q68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:Q69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:Q63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:Q64"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:Q59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:Q61"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -2428,66 +2428,66 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:Q61"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:Q70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:Q72"/>
-    <mergeCell ref="A65:Q65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:Q66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:Q67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:Q68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:Q69"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
